--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="70" windowWidth="21060" windowHeight="10840"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21060" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">I j </t>
   </si>
@@ -45,13 +45,13 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>Перемечение</t>
-  </si>
-  <si>
     <t>исследовае 1:</t>
   </si>
   <si>
     <t>так как выполняется условие оживления =&gt; верхняя и нижняя клетка погибнет, а правая и левая оживет :</t>
+  </si>
+  <si>
+    <t>I + 1 j</t>
   </si>
 </sst>
 </file>
@@ -829,23 +829,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -862,7 +862,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -879,7 +879,7 @@
       <c r="U7" s="15"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -896,7 +896,7 @@
       <c r="U8" s="15"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
@@ -925,7 +925,7 @@
       <c r="U9" s="15"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
@@ -954,14 +954,14 @@
       <c r="U10" s="15"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>7</v>
@@ -983,7 +983,7 @@
       <c r="U11" s="15"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1000,7 +1000,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1017,7 +1017,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="13"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1034,7 +1034,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1044,7 +1044,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1054,13 +1054,10 @@
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
       <c r="Q16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.35">
-      <c r="K17" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.25">
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
@@ -1069,7 +1066,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
@@ -1078,7 +1075,7 @@
       <c r="U18" s="15"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -1096,7 +1093,7 @@
       <c r="U19" s="15"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I20" s="13"/>
       <c r="J20" s="12">
         <v>1</v>
@@ -1124,7 +1121,7 @@
       <c r="U20" s="15"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I21" s="13"/>
       <c r="J21" s="12">
         <v>1</v>
@@ -1150,7 +1147,7 @@
       <c r="U21" s="15"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I22" s="13"/>
       <c r="J22" s="12">
         <v>1</v>
@@ -1176,7 +1173,7 @@
       <c r="U22" s="15"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -1190,7 +1187,7 @@
       <c r="U23" s="15"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
@@ -1199,7 +1196,7 @@
       <c r="U24" s="15"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:22" ht="14.45" x14ac:dyDescent="0.35">
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -1220,7 +1217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1232,7 +1229,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
